--- a/Pruebas manuales de codigo.xlsx
+++ b/Pruebas manuales de codigo.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP_La\Repositorios\Facultad\simulacion\tp2\Simulacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87B6436-EAD3-4239-A3F8-999FBF767A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7D915F-B71E-4847-83EF-127822947C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC1C322F-E1CF-4430-8666-C2FC4779D50A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Exponencial" sheetId="1" r:id="rId1"/>
+    <sheet name="Uniform" sheetId="2" r:id="rId2"/>
+    <sheet name="Normal" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="rnd">Hoja1!$A$1:$A$20</definedName>
+    <definedName name="rnd">Exponencial!$A$1:$A$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,62 +63,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
-  <si>
-    <t>[[8.6565</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.91]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [5.208</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8.6883]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [5.5947</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.075]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.5]]</t>
-  </si>
-  <si>
-    <t>5.0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>0.03523451029828098,</t>
+  </si>
+  <si>
+    <t>0.21931124660806287,</t>
+  </si>
+  <si>
+    <t>0.12768365550809535,</t>
+  </si>
+  <si>
+    <t>0.09762670192239231,</t>
+  </si>
+  <si>
+    <t>0.1831519086820853,</t>
+  </si>
+  <si>
+    <t>0.08554153384909959,</t>
+  </si>
+  <si>
+    <t>0.45278081409992943,</t>
+  </si>
+  <si>
+    <t>0.2726728618890921,</t>
+  </si>
+  <si>
+    <t>0.035842110011854826,</t>
+  </si>
+  <si>
+    <t>0.26402137919767926,</t>
+  </si>
+  <si>
+    <t>0.2702033685579545,</t>
+  </si>
+  <si>
+    <t>0.3295631759526314,</t>
+  </si>
+  <si>
+    <t>0.12110971076064561,</t>
+  </si>
+  <si>
+    <t>0.09756777634857522,</t>
+  </si>
+  <si>
+    <t>0.0009264616580685156,</t>
+  </si>
+  <si>
+    <t>0.02480703775551377,</t>
+  </si>
+  <si>
+    <t>0.02485402927379641,</t>
+  </si>
+  <si>
+    <t>0.04589836288076012,</t>
+  </si>
+  <si>
+    <t>0.07296446367724482,</t>
+  </si>
+  <si>
+    <t>0.4544140302639802</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="172" formatCode="0.00000000000000000"/>
+    <numFmt numFmtId="173" formatCode="0.000000000000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -147,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -156,10 +175,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,18 +515,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893D2B1B-58D5-4017-8321-C3597181CEDB}">
-  <dimension ref="A1:BS51"/>
+  <dimension ref="A1:AX51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A1" s="5">
-        <v>8.6564999999999994</v>
-      </c>
+      <c r="A1" s="5"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -549,421 +572,385 @@
       <c r="AX1" s="1"/>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>5.2080000000000002</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4">
-        <f>COUNT(rnd)</f>
+      <c r="A2" s="5"/>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4">
-        <f>C4</f>
-        <v>5.2080000000000002</v>
-      </c>
-      <c r="H2" s="4">
-        <f>G2+$C$7</f>
-        <v>5.5947000000000005</v>
-      </c>
-      <c r="I2" s="4" cm="1">
-        <f t="array" ref="I2:I12">FREQUENCY(rnd,H2:H11)</f>
-        <v>3</v>
-      </c>
-      <c r="J2" s="4">
-        <f>$C$2/$C$6</f>
-        <v>2</v>
-      </c>
-      <c r="K2" s="4">
-        <f>((I2-J2)^2)/J2</f>
-        <v>0.5</v>
-      </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>7.4074999999999998</v>
-      </c>
+      <c r="A3" s="5"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="4">
-        <f>MAX(rnd)</f>
-        <v>9.0749999999999993</v>
-      </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="4">
-        <v>2</v>
-      </c>
-      <c r="G3" s="4">
-        <f>H2</f>
-        <v>5.5947000000000005</v>
-      </c>
-      <c r="H3" s="4">
-        <f t="shared" ref="H3:H10" si="0">G3+$C$7</f>
-        <v>5.9814000000000007</v>
-      </c>
-      <c r="I3" s="4">
-        <v>3</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J11" si="1">$C$2/$C$6</f>
-        <v>2</v>
-      </c>
-      <c r="K3" s="4">
-        <f>((I3-J3)^2)/J3</f>
-        <v>0.5</v>
-      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>5.9394999999999998</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4">
-        <f>MIN(rnd)</f>
-        <v>5.2080000000000002</v>
-      </c>
+      <c r="A4" s="5"/>
+      <c r="B4" s="7">
+        <v>3.5234510298280897E-2</v>
+      </c>
+      <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="4">
-        <f t="shared" ref="G4:G11" si="2">H3</f>
-        <v>5.9814000000000007</v>
-      </c>
-      <c r="H4" s="4">
-        <f t="shared" si="0"/>
-        <v>6.368100000000001</v>
-      </c>
-      <c r="I4" s="4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K4" s="4">
-        <f>((I4-J4)^2)/J4</f>
-        <v>0.5</v>
-      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>8.0220000000000002</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4">
-        <f>C3-C4</f>
-        <v>3.8669999999999991</v>
-      </c>
+      <c r="A5" s="5"/>
+      <c r="B5" s="7">
+        <v>0.219311246608062</v>
+      </c>
+      <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4">
-        <v>4</v>
-      </c>
-      <c r="G5" s="4">
-        <f t="shared" si="2"/>
-        <v>6.368100000000001</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" si="0"/>
-        <v>6.7548000000000012</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="1"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="7">
+        <v>0.12768365550809499</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
+        <f>MIN(B4:B23)</f>
+        <v>9.26461658068515E-4</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
+        <f>E6</f>
+        <v>9.26461658068515E-4</v>
+      </c>
+      <c r="H6" s="4">
+        <f>G6+$E$9</f>
+        <v>4.6275218518659657E-2</v>
+      </c>
+      <c r="I6" s="4" cm="1">
+        <f t="array" ref="I6:I16" xml:space="preserve"> FREQUENCY(B4:B23,H6:H15)</f>
+        <v>6</v>
+      </c>
+      <c r="J6" s="4">
+        <f>((_xlfn.NORM.DIST(H6,$G$14,$G$15,1))-(_xlfn.NORM.DIST(G6,$G$14,$G$15,1)))*COUNT(B4:B23)</f>
+        <v>0.62593573008186909</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="7">
+        <v>9.7626701922392298E-2</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
+        <f>MAX(B4:B23)</f>
+        <v>0.45441403026397997</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
+        <f>H6</f>
+        <v>4.6275218518659657E-2</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" ref="H7:H15" si="0">G7+$E$9</f>
+        <v>9.1623975379250794E-2</v>
+      </c>
+      <c r="I7" s="4">
         <v>2</v>
       </c>
-      <c r="K5" s="4">
-        <f>((I5-J5)^2)/J5</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>5.8120000000000003</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
-        <v>5</v>
-      </c>
-      <c r="G6" s="4">
-        <f t="shared" si="2"/>
-        <v>6.7548000000000012</v>
-      </c>
-      <c r="H6" s="4">
-        <f t="shared" si="0"/>
-        <v>7.1415000000000015</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K6" s="4">
-        <f>((I6-J6)^2)/J6</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>7.1550000000000002</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4">
-        <f>C5/C6</f>
-        <v>0.38669999999999993</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4">
-        <v>6</v>
-      </c>
-      <c r="G7" s="4">
-        <f t="shared" si="2"/>
-        <v>7.1415000000000015</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" si="0"/>
-        <v>7.5282000000000018</v>
-      </c>
-      <c r="I7" s="4">
-        <v>3</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K7" s="4">
-        <f>((I7-J7)^2)/J7</f>
-        <v>0.5</v>
-      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>5.6310000000000002</v>
-      </c>
-      <c r="B8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="7">
+        <v>0.183151908682085</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4">
-        <v>7</v>
-      </c>
+      <c r="E8" s="4">
+        <f>E7-E6</f>
+        <v>0.45348756860591144</v>
+      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="4">
-        <f t="shared" si="2"/>
-        <v>7.5282000000000018</v>
+        <f t="shared" ref="G8:G14" si="1">H7</f>
+        <v>9.1623975379250794E-2</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="0"/>
-        <v>7.914900000000002</v>
+        <v>0.13697273223984194</v>
       </c>
       <c r="I8" s="4">
-        <v>2</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K8" s="4">
-        <f>((I8-J8)^2)/J8</f>
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>8.7985000000000007</v>
-      </c>
-      <c r="B9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="7">
+        <v>8.5541533849099502E-2</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4">
-        <v>8</v>
-      </c>
+      <c r="E9" s="4">
+        <f>E8/10</f>
+        <v>4.5348756860591144E-2</v>
+      </c>
+      <c r="F9" s="4"/>
       <c r="G9" s="4">
-        <f t="shared" si="2"/>
-        <v>7.914900000000002</v>
+        <f t="shared" si="1"/>
+        <v>0.13697273223984194</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="0"/>
-        <v>8.3016000000000023</v>
+        <v>0.18232148910043308</v>
       </c>
       <c r="I9" s="4">
-        <v>2</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K9" s="4">
-        <f>((I9-J9)^2)/J9</f>
         <v>0</v>
       </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>8.4779999999999998</v>
-      </c>
-      <c r="B10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="7">
+        <v>0.45278081409992899</v>
+      </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4">
-        <v>9</v>
-      </c>
+      <c r="E10" s="4">
+        <f>AVERAGE(B4:B23)</f>
+        <v>0.16080875695978694</v>
+      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="4">
-        <f t="shared" si="2"/>
-        <v>8.3016000000000023</v>
+        <f t="shared" si="1"/>
+        <v>0.18232148910043308</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="0"/>
-        <v>8.6883000000000017</v>
+        <v>0.22767024596102423</v>
       </c>
       <c r="I10" s="4">
         <v>2</v>
       </c>
-      <c r="J10" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K10" s="4">
-        <f>((I10-J10)^2)/J10</f>
-        <v>0</v>
-      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>5.4085000000000001</v>
-      </c>
-      <c r="B11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="7">
+        <v>0.27267286188909201</v>
+      </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4">
-        <v>10</v>
-      </c>
+      <c r="E11" s="4">
+        <f>SQRT(_xlfn.VAR.S(B4:B23))</f>
+        <v>0.13957907901647565</v>
+      </c>
+      <c r="F11" s="4"/>
       <c r="G11" s="4">
-        <f t="shared" si="2"/>
-        <v>8.6883000000000017</v>
+        <f t="shared" si="1"/>
+        <v>0.22767024596102423</v>
       </c>
       <c r="H11" s="4">
-        <f>C3</f>
-        <v>9.0749999999999993</v>
+        <f t="shared" si="0"/>
+        <v>0.2730190028216154</v>
       </c>
       <c r="I11" s="4">
         <v>3</v>
       </c>
-      <c r="J11" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K11" s="4">
-        <f>((I11-J11)^2)/J11</f>
-        <v>0.5</v>
-      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>7.5685000000000002</v>
-      </c>
-      <c r="B12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="7">
+        <v>3.5842110011854798E-2</v>
+      </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="G12" s="4">
+        <f t="shared" si="1"/>
+        <v>0.2730190028216154</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.31836775968220654</v>
+      </c>
       <c r="I12" s="4">
         <v>0</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="4">
-        <f>SUM(K2:K11)</f>
-        <v>5</v>
-      </c>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>6.2350000000000003</v>
-      </c>
-      <c r="B13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="7">
+        <v>0.26402137919767898</v>
+      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.31836775968220654</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.36371651654279769</v>
+      </c>
       <c r="I13" s="4">
-        <f>SUM(I2:I11)</f>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>7.1689999999999996</v>
-      </c>
-      <c r="B14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="7">
+        <v>0.27020336855795402</v>
+      </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="G14" s="4">
+        <f t="shared" si="1"/>
+        <v>0.36371651654279769</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.40906527340338883</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>8.9734999999999996</v>
-      </c>
-      <c r="B15" s="4"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="7">
+        <v>0.32956317595263102</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="G15" s="4">
+        <f>H14</f>
+        <v>0.40906527340338883</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.45441403026397997</v>
+      </c>
+      <c r="I15" s="4">
+        <v>2</v>
+      </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>7.8120000000000003</v>
-      </c>
-      <c r="B16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="7">
+        <v>0.121109710760645</v>
+      </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>9.0749999999999993</v>
-      </c>
-      <c r="B17" s="4"/>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="7">
+        <v>9.7567776348575205E-2</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -974,11 +961,11 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>8.1329999999999991</v>
-      </c>
-      <c r="B18" s="4"/>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="7">
+        <v>9.26461658068515E-4</v>
+      </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -989,11 +976,11 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>5.3029999999999999</v>
-      </c>
-      <c r="B19" s="4"/>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="7">
+        <v>2.4807037755513701E-2</v>
+      </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1004,11 +991,11 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>6.91</v>
-      </c>
-      <c r="B20" s="4"/>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="7">
+        <v>2.4854029273796398E-2</v>
+      </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1019,254 +1006,82 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="B21" s="7">
+        <v>4.5898362880760102E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1">
-        <v>5208</v>
-      </c>
-      <c r="C24" s="1">
-        <v>74075</v>
-      </c>
-      <c r="D24" s="1">
-        <v>59395</v>
-      </c>
-      <c r="E24" s="1">
-        <v>8022</v>
-      </c>
-      <c r="F24" s="1">
-        <v>5812</v>
-      </c>
-      <c r="G24" s="1">
-        <v>7155</v>
-      </c>
-      <c r="H24" s="1">
-        <v>5631</v>
-      </c>
-      <c r="I24" s="1">
-        <v>87985</v>
-      </c>
-      <c r="J24" s="1">
-        <v>8478</v>
-      </c>
-      <c r="K24" s="1">
-        <v>54085</v>
-      </c>
-      <c r="L24" s="1">
-        <v>75685</v>
-      </c>
-      <c r="M24" s="1">
-        <v>6235</v>
-      </c>
-      <c r="N24" s="1">
-        <v>7169</v>
-      </c>
-      <c r="O24" s="1">
-        <v>89735</v>
-      </c>
-      <c r="P24" s="1">
-        <v>7812</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>9075</v>
-      </c>
-      <c r="R24" s="1">
-        <v>8133</v>
-      </c>
-      <c r="S24" s="1">
-        <v>5303</v>
-      </c>
-      <c r="T24" t="s">
-        <v>1</v>
-      </c>
-      <c r="U24">
-        <v>10</v>
-      </c>
-      <c r="V24" t="s">
-        <v>2</v>
-      </c>
-      <c r="W24" s="1">
-        <v>55947</v>
-      </c>
-      <c r="X24" s="1">
-        <v>59814</v>
-      </c>
-      <c r="Y24" s="1">
-        <v>63681</v>
-      </c>
-      <c r="Z24" s="1">
-        <v>67548</v>
-      </c>
-      <c r="AA24" s="1">
-        <v>71415</v>
-      </c>
-      <c r="AB24" s="1">
-        <v>75282</v>
-      </c>
-      <c r="AC24" s="1">
-        <v>79149</v>
-      </c>
-      <c r="AD24" s="1">
-        <v>83016</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG24" s="1">
-        <v>59814</v>
-      </c>
-      <c r="AH24" s="1">
-        <v>63681</v>
-      </c>
-      <c r="AI24" s="1">
-        <v>67548</v>
-      </c>
-      <c r="AJ24" s="1">
-        <v>71415</v>
-      </c>
-      <c r="AK24" s="1">
-        <v>75282</v>
-      </c>
-      <c r="AL24" s="1">
-        <v>79149</v>
-      </c>
-      <c r="AM24" s="1">
-        <v>83016</v>
-      </c>
-      <c r="AN24" s="1">
-        <v>86883</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>6</v>
-      </c>
-      <c r="AQ24">
-        <v>3</v>
-      </c>
-      <c r="AR24">
-        <v>1</v>
-      </c>
-      <c r="AS24">
-        <v>0</v>
-      </c>
-      <c r="AT24">
-        <v>1</v>
-      </c>
-      <c r="AU24">
-        <v>3</v>
-      </c>
-      <c r="AV24">
-        <v>2</v>
-      </c>
-      <c r="AW24">
-        <v>2</v>
-      </c>
-      <c r="AX24">
-        <v>2</v>
-      </c>
-      <c r="AY24" t="s">
-        <v>7</v>
-      </c>
-      <c r="AZ24" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA24" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB24" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC24" t="s">
-        <v>9</v>
-      </c>
-      <c r="BD24" t="s">
-        <v>9</v>
-      </c>
-      <c r="BE24" t="s">
-        <v>9</v>
-      </c>
-      <c r="BF24" t="s">
-        <v>9</v>
-      </c>
-      <c r="BG24" t="s">
-        <v>9</v>
-      </c>
-      <c r="BH24" t="s">
-        <v>9</v>
-      </c>
-      <c r="BI24" t="s">
-        <v>10</v>
-      </c>
-      <c r="BJ24" t="s">
-        <v>11</v>
-      </c>
-      <c r="BK24" t="s">
-        <v>12</v>
-      </c>
-      <c r="BL24" t="s">
-        <v>12</v>
-      </c>
-      <c r="BM24" t="s">
-        <v>9</v>
-      </c>
-      <c r="BN24" t="s">
-        <v>12</v>
-      </c>
-      <c r="BO24" t="s">
-        <v>12</v>
-      </c>
-      <c r="BP24" t="s">
-        <v>13</v>
-      </c>
-      <c r="BQ24" t="s">
-        <v>13</v>
-      </c>
-      <c r="BR24" t="s">
-        <v>13</v>
-      </c>
-      <c r="BS24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
+        <v>7.2964463677244795E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="7">
+        <v>0.45441403026397997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
@@ -1329,4 +1144,422 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34673F78-BF4F-4FBD-8FBD-96113440C534}">
+  <dimension ref="A1:U22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B2" s="6">
+        <v>8.0717492776648196</v>
+      </c>
+      <c r="C2">
+        <v>8.1243357714294007</v>
+      </c>
+      <c r="D2">
+        <v>9.1479365750698207</v>
+      </c>
+      <c r="E2">
+        <v>8.7087081122208598</v>
+      </c>
+      <c r="F2">
+        <v>6.40417150819873</v>
+      </c>
+      <c r="G2">
+        <v>9.7283523153653704</v>
+      </c>
+      <c r="H2">
+        <v>6.6695790306440399</v>
+      </c>
+      <c r="I2">
+        <v>7.6912941334083902</v>
+      </c>
+      <c r="J2">
+        <v>8.9464850217004503</v>
+      </c>
+      <c r="K2">
+        <v>9.3245820771197998</v>
+      </c>
+      <c r="L2">
+        <v>8.2153533161250305</v>
+      </c>
+      <c r="M2">
+        <v>9.0583830584841092</v>
+      </c>
+      <c r="N2">
+        <v>5.78505960681996</v>
+      </c>
+      <c r="O2">
+        <v>7.7443072862216802</v>
+      </c>
+      <c r="P2">
+        <v>5.0583628413590001</v>
+      </c>
+      <c r="Q2">
+        <v>5.5811805300977904</v>
+      </c>
+      <c r="R2">
+        <v>5.0548401425243199</v>
+      </c>
+      <c r="S2">
+        <v>5.0789087474237498</v>
+      </c>
+      <c r="T2">
+        <v>9.5909745360281207</v>
+      </c>
+      <c r="U2">
+        <v>9.4263666149269891</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B3" s="7">
+        <v>8.0717492776648196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B4" s="7">
+        <v>8.1243357714294007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
+        <v>9.1479365750698207</v>
+      </c>
+      <c r="D5">
+        <f>COUNT(B3:B22)</f>
+        <v>20</v>
+      </c>
+      <c r="F5" s="4">
+        <f>D8</f>
+        <v>5.0548401425243199</v>
+      </c>
+      <c r="G5" s="4">
+        <f>F5+$D$10</f>
+        <v>5.5221913598084251</v>
+      </c>
+      <c r="H5" cm="1">
+        <f t="array" ref="H5:H15">FREQUENCY(B3:B22,G5:G14)</f>
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
+        <v>8.7087081122208598</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUM(B3:B22)</f>
+        <v>153.41093050283243</v>
+      </c>
+      <c r="F6" s="4">
+        <f>G5</f>
+        <v>5.5221913598084251</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" ref="G6:G14" si="0">F6+$D$10</f>
+        <v>5.9895425770925304</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="K6" s="4">
+        <f>SUM(H5:H7)</f>
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <f>SUM(I5:I7)</f>
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <f>((K6-L6)^2)/L6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
+        <v>6.40417150819873</v>
+      </c>
+      <c r="D7" s="4">
+        <f>MAX(B3:B22)</f>
+        <v>9.7283523153653704</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" ref="F7:F14" si="1">G6</f>
+        <v>5.9895425770925304</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>6.4568937943766356</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <f>SUM(H8:H10)</f>
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <f>SUM(I8:I10)</f>
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <f>((K7-L7)^2)/L7</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
+        <v>9.7283523153653704</v>
+      </c>
+      <c r="D8" s="4">
+        <f>MIN(B3:B22)</f>
+        <v>5.0548401425243199</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="1"/>
+        <v>6.4568937943766356</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>6.9242450116607408</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <f>SUM(H11:H14)</f>
+        <v>11</v>
+      </c>
+      <c r="L8">
+        <f>SUM(I11:I14)</f>
+        <v>8</v>
+      </c>
+      <c r="M8">
+        <f>((K8-L8)^2)/L8</f>
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
+        <v>6.6695790306440399</v>
+      </c>
+      <c r="D9" s="4">
+        <f>D7-D8</f>
+        <v>4.6735121728410505</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="1"/>
+        <v>6.9242450116607408</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>7.391596228944846</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
+        <v>7.6912941334083902</v>
+      </c>
+      <c r="D10" s="4">
+        <f>D9/10</f>
+        <v>0.46735121728410506</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="1"/>
+        <v>7.391596228944846</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8589474462289513</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <f>SUM(M6:M8)</f>
+        <v>2.625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
+        <v>8.9464850217004503</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="1"/>
+        <v>7.8589474462289513</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3262986635130556</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
+        <v>9.3245820771197998</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="1"/>
+        <v>8.3262986635130556</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>8.7936498807971599</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
+        <v>8.2153533161250305</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>8.7936498807971599</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="0"/>
+        <v>9.2610010980812643</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
+        <v>9.0583830584841092</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="1"/>
+        <v>9.2610010980812643</v>
+      </c>
+      <c r="G14" s="4">
+        <f>D7</f>
+        <v>9.7283523153653704</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="7">
+        <v>5.78505960681996</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
+        <v>7.7443072862216802</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="7">
+        <v>5.0583628413590001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
+        <v>5.5811805300977904</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="7">
+        <v>5.0548401425243199</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
+        <v>5.0789087474237498</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="7">
+        <v>9.5909745360281207</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
+        <v>9.4263666149269891</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA861CC-53E8-4429-B63A-835104FD6260}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>